--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06E9BEF-2CE5-4892-87D4-1FA6A656367E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2D2A6-5DCE-40BF-BBB4-08B23F1D76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3735" windowWidth="28800" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="2685" yWindow="1890" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,15 +50,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모아야 할 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작살을 얻자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원을 얻을려면 우주선을 자원이 있는데 까지 조종해야 한다
+이제 멀리서 자원을 가져오자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모아야할 아이템 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모아야할 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron
+Copper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10
+10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총을 쏘자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 거대한 자원은 얻을 수 없다 총으로 잘게 부셔서 가져가자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold
+Emerald</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20
+40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원 유도 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원을 얻을려면 우주선을 자원이 있는데 까지 조종해야 한다
+이제 가만히 서서 멀리 있는 자원을 가져오자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron
+Copper
+Gold
+Uranium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100
+70
+50
+10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -105,9 +173,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -423,30 +494,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC204C-0632-4F58-B32D-54542FF19A98}">
-  <dimension ref="A3:F9"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>COUNTA(C:C) - 1</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -457,21 +532,61 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>4</v>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2D2A6-5DCE-40BF-BBB4-08B23F1D76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159ADEF-AEB1-46FB-B136-8164E44D714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1890" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="6285" yWindow="2685" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159ADEF-AEB1-46FB-B136-8164E44D714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2D2A6-5DCE-40BF-BBB4-08B23F1D76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="2685" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="2685" yWindow="1890" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -497,7 +497,7 @@
   <dimension ref="A3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A2D2A6-5DCE-40BF-BBB4-08B23F1D76D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF63E2-9C55-4EC3-807F-A75AD469FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1890" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="3765" yWindow="2070" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,11 +55,6 @@
   </si>
   <si>
     <t>작살을 얻자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자원을 얻을려면 우주선을 자원이 있는데 까지 조종해야 한다
-이제 멀리서 자원을 가져오자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -127,6 +122,50 @@
 70
 50
 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 내용을 font가 출력하지 못해 여기다 일단 임시로 쓴다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We can't get too big a resource.
+ Let's break it down with a gun and take it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To get the resources, you have to fly the spacecraft to the full.
+Now let's stand still and get some resources far away</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원을 얻을려면 우주선을 자원이 있는데 까지 조종해야 한다.
+이제 멀리서 자원을 가져오자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To get the resources, you have to fly the spacecraft to the full.
+Now let's bring resources from afar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's get a harpoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's shoot a gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource guidance system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LowGun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harpoon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,12 +212,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,34 +536,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC204C-0632-4F58-B32D-54542FF19A98}">
-  <dimension ref="A3:G11"/>
+  <dimension ref="A3:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>COUNTA(C:C) - 1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -532,64 +577,99 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
+    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
         <v>10</v>
       </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="1" t="s">
+    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
+      <c r="J11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>19</v>
+      <c r="K11" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:K8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBF63E2-9C55-4EC3-807F-A75AD469FAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159ADEF-AEB1-46FB-B136-8164E44D714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="2070" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="6285" yWindow="2685" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,11 @@
   </si>
   <si>
     <t>작살을 얻자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자원을 얻을려면 우주선을 자원이 있는데 까지 조종해야 한다
+이제 멀리서 자원을 가져오자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -122,50 +127,6 @@
 70
 50
 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한글 내용을 font가 출력하지 못해 여기다 일단 임시로 쓴다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We can't get too big a resource.
- Let's break it down with a gun and take it</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To get the resources, you have to fly the spacecraft to the full.
-Now let's stand still and get some resources far away</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자원을 얻을려면 우주선을 자원이 있는데 까지 조종해야 한다.
-이제 멀리서 자원을 가져오자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>To get the resources, you have to fly the spacecraft to the full.
-Now let's bring resources from afar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let's get a harpoon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Let's shoot a gun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>resource guidance system</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LowGun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Harpoon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,15 +173,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,37 +494,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC204C-0632-4F58-B32D-54542FF19A98}">
-  <dimension ref="A3:K11"/>
+  <dimension ref="A3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
     <col min="4" max="4" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="9" max="9" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="58.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>COUNTA(C:C) - 1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -577,99 +532,64 @@
         <v>2</v>
       </c>
       <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" t="s">
         <v>6</v>
       </c>
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="33" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="66" x14ac:dyDescent="0.3">
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I8:K8"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159ADEF-AEB1-46FB-B136-8164E44D714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F640F7-4906-4C51-A485-40BE83376E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="2685" windowWidth="22005" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="1770" yWindow="2205" windowWidth="22020" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,48 @@
 70
 50
 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글이 안되서 한글 내용은 여기다 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's get a harpoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Let's shoot a gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resource guidance system</t>
+  </si>
+  <si>
+    <t>resource guidance system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harpoon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low Gun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To get the resources, you have to fly the spacecraft to the full.
+Now let's bring resources from afar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Too great a resource cannot be obtained.
+Let's break it down with a gun and take it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To get the resources, you have to fly the spacecraft to the full.
+Now let's stand still and get some resources far away</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,12 +215,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,34 +539,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAC204C-0632-4F58-B32D-54542FF19A98}">
-  <dimension ref="A3:G11"/>
+  <dimension ref="A3:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="24.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>COUNTA(C:C) - 1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>0</v>
       </c>
@@ -537,16 +585,21 @@
       <c r="G8" t="s">
         <v>8</v>
       </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -554,16 +607,25 @@
       <c r="G9" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="J9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>14</v>
@@ -571,16 +633,25 @@
       <c r="G10" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="J10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>18</v>
@@ -588,8 +659,20 @@
       <c r="G11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J8:L8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/QuestData.xlsx
+++ b/Data/QuestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GItData\Space Scavenger\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F640F7-4906-4C51-A485-40BE83376E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C50CEAD-C6AB-4F35-946A-F75E42FA3BBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="2205" windowWidth="22020" windowHeight="11295" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{161ACBE2-5F03-4722-8A6E-BAA2394D9D69}"/>
   </bookViews>
   <sheets>
     <sheet name="Quest" sheetId="1" r:id="rId1"/>
@@ -158,17 +158,23 @@
   </si>
   <si>
     <t>To get the resources, you have to fly the spacecraft to the full.
-Now let's bring resources from afar</t>
+Now let's bring resources from afar
+[Need Item]
+Iron : 10, Copper : 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Too great a resource cannot be obtained.
-Let's break it down with a gun and take it</t>
+Let's break it down with a gun and take it
+[Need Item]
+Gold : 20, Emerald : 40</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>To get the resources, you have to fly the spacecraft to the full.
-Now let's stand still and get some resources far away</t>
+Now let's stand still and get some resources far away
+[Need Item]
+Iron : 100, Copper : 70,  Gold : 50, Uranium : 10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +597,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
@@ -617,7 +623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="66" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>22</v>
       </c>
